--- a/STUDIO/org.openl.rules.test/test-resources/functionality/Strings_concatenate.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/Strings_concatenate.xlsx
@@ -1,15 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\STUDIO\org.openl.rules.test\test-resources\functionality\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A40A1F-29B9-408E-B43C-288747BEFF0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="225" windowWidth="16140" windowHeight="9090" tabRatio="711"/>
+    <workbookView xWindow="-28920" yWindow="6165" windowWidth="29040" windowHeight="15840" tabRatio="711" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="concatenate" sheetId="18" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -67,9 +83,6 @@
     <t>=concatenate("Hello")</t>
   </si>
   <si>
-    <t>Test concatenate concatenateTest()</t>
-  </si>
-  <si>
     <t>Hello</t>
   </si>
   <si>
@@ -83,12 +96,15 @@
   </si>
   <si>
     <t>1.55</t>
+  </si>
+  <si>
+    <t>Test concatenate concatenateTest</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -126,7 +142,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -488,28 +504,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C3"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" customWidth="1"/>
+    <col min="3" max="3" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.71875" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -517,12 +533,12 @@
         <v>1</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -538,10 +554,10 @@
         <v>A</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -557,7 +573,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -570,7 +586,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -589,7 +605,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -605,10 +621,10 @@
         <v>E</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -624,10 +640,10 @@
         <v>F</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -643,10 +659,10 @@
         <v>G</v>
       </c>
       <c r="H11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -662,7 +678,7 @@
         <v>H</v>
       </c>
       <c r="H12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
